--- a/ExpSimulator/DataSheets/3.詳細設計/ExpSimulator_詳細設計書_入力データ.xlsx
+++ b/ExpSimulator/DataSheets/3.詳細設計/ExpSimulator_詳細設計書_入力データ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TakehiroSomekawa\source\repos\ExpSimulator\ExpSimulator\DataSheets\3.詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4349FA-DAA9-49B6-8C92-248C311A946B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638C6430-5096-4EFB-9C3C-4EF9CD99F85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6150" yWindow="-21720" windowWidth="51840" windowHeight="21240" xr2:uid="{EC0F58F6-2D94-4107-948F-99AEF655C188}"/>
+    <workbookView xWindow="19770" yWindow="-21600" windowWidth="25800" windowHeight="21000" xr2:uid="{EC0F58F6-2D94-4107-948F-99AEF655C188}"/>
   </bookViews>
   <sheets>
     <sheet name="ホールデータ" sheetId="1" r:id="rId1"/>
@@ -344,10 +344,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ボーダー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>導入開始日</t>
     <rPh sb="0" eb="4">
       <t>ドウニュウカイシ</t>
@@ -373,18 +369,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ProbVarHitProb</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ProbVarHitRashRate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ProbVarHitPersisRate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SpecialTime</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -402,10 +386,6 @@
   </si>
   <si>
     <t>MakerName</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IntroductionStartDate</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -492,6 +472,29 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>キバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IntroductStartDate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RandVarHitProb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RandVarHitEntryRate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RandVarHitContinueRate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボーダー回転数</t>
+    <rPh sb="4" eb="7">
+      <t>カイテンスウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1083,7 +1086,7 @@
   <sheetData>
     <row r="1" spans="2:7" ht="24" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
@@ -1218,7 +1221,7 @@
         <v>40</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
@@ -1238,7 +1241,7 @@
         <v>40</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
@@ -1258,7 +1261,7 @@
         <v>41</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
@@ -1278,7 +1281,7 @@
         <v>40</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
@@ -1298,7 +1301,7 @@
         <v>31</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
@@ -1318,7 +1321,7 @@
         <v>41</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
@@ -1338,12 +1341,12 @@
         <v>41</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1363,7 +1366,7 @@
   <cols>
     <col min="1" max="1" width="3.625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.75" bestFit="1" customWidth="1"/>
@@ -1371,7 +1374,7 @@
   <sheetData>
     <row r="1" spans="2:7" ht="24" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
@@ -1395,16 +1398,16 @@
     </row>
     <row r="5" spans="2:7" ht="38.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
@@ -1412,7 +1415,7 @@
         <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>39</v>
@@ -1423,10 +1426,10 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>39</v>
@@ -1462,7 +1465,7 @@
     </row>
     <row r="11" spans="2:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>25</v>
@@ -1474,18 +1477,18 @@
         <v>39</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>0</v>
@@ -1494,21 +1497,21 @@
         <v>39</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>39</v>
@@ -1517,7 +1520,7 @@
         <v>31</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
@@ -1525,7 +1528,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>44</v>
@@ -1534,10 +1537,10 @@
         <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
@@ -1545,7 +1548,7 @@
         <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>45</v>
@@ -1554,10 +1557,10 @@
         <v>39</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
@@ -1565,7 +1568,7 @@
         <v>36</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>46</v>
@@ -1574,10 +1577,10 @@
         <v>39</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
@@ -1585,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>47</v>
@@ -1594,10 +1597,10 @@
         <v>39</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
@@ -1605,7 +1608,7 @@
         <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>48</v>
@@ -1617,7 +1620,7 @@
         <v>41</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
@@ -1625,7 +1628,7 @@
         <v>36</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>49</v>
@@ -1637,7 +1640,7 @@
         <v>41</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
@@ -1645,7 +1648,7 @@
         <v>36</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>50</v>
@@ -1657,38 +1660,38 @@
         <v>41</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>39</v>
@@ -1697,32 +1700,32 @@
         <v>41</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/ExpSimulator/DataSheets/3.詳細設計/ExpSimulator_詳細設計書_入力データ.xlsx
+++ b/ExpSimulator/DataSheets/3.詳細設計/ExpSimulator_詳細設計書_入力データ.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TakehiroSomekawa\source\repos\ExpSimulator\ExpSimulator\DataSheets\3.詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638C6430-5096-4EFB-9C3C-4EF9CD99F85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD814B3-E9BB-4D14-B977-D2F0D2F3AF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19770" yWindow="-21600" windowWidth="25800" windowHeight="21000" xr2:uid="{EC0F58F6-2D94-4107-948F-99AEF655C188}"/>
+    <workbookView xWindow="-6030" yWindow="-21600" windowWidth="25800" windowHeight="21000" activeTab="2" xr2:uid="{EC0F58F6-2D94-4107-948F-99AEF655C188}"/>
   </bookViews>
   <sheets>
-    <sheet name="ホールデータ" sheetId="1" r:id="rId1"/>
-    <sheet name="機種基盤データ" sheetId="2" r:id="rId2"/>
+    <sheet name="入力データ定義(ホールデータ)" sheetId="1" r:id="rId1"/>
+    <sheet name="入力データ定義(機種基盤データ)" sheetId="2" r:id="rId2"/>
+    <sheet name="機種基盤データ読み込み機能" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="98">
   <si>
     <t>メーカー</t>
     <phoneticPr fontId="1"/>
@@ -459,23 +461,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>入力データのクラス(ホールデータ)</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入力データのクラス(機種基盤データ)</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>キバン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>IntroductStartDate</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -496,6 +481,183 @@
     <rPh sb="4" eb="7">
       <t>カイテンスウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力データ定義(ホールデータ)</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力データ定義(機種基盤データ)</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■機能概要</t>
+    <rPh sb="1" eb="5">
+      <t>キノウガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■機能名</t>
+    <rPh sb="1" eb="4">
+      <t>キノウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■引数</t>
+    <rPh sb="1" eb="3">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■戻り値</t>
+    <rPh sb="1" eb="2">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面から、機種基盤データを読込みXML形式でファイルへ保存する。</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>キシュキバン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヨミコ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機種基盤データ登録機能</t>
+    <rPh sb="0" eb="2">
+      <t>キシュ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キバン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機種基盤データ登録</t>
+    <rPh sb="0" eb="4">
+      <t>キシュキバン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■処理内容</t>
+    <rPh sb="1" eb="3">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>① 画面から機種基盤データのプロパティを取得する。</t>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キシュ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キバン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②Xmlの各エレメントを作成する</t>
+    <rPh sb="5" eb="6">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミドル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>min</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライトミドル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>甘デジ</t>
+    <rPh sb="0" eb="1">
+      <t>アマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ModelType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機種タイプ</t>
+    <rPh sb="0" eb="2">
+      <t>キシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0 &lt; n</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>∞ &gt; n</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -707,21 +869,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1533525</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{401C27C9-80EC-51DA-DEA8-757B6A9DFFB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04B201C4-9BAC-62A6-25F8-06D4CC89FE1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -737,8 +899,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="295275" y="6315075"/>
-          <a:ext cx="3343275" cy="3143250"/>
+          <a:off x="295275" y="6553200"/>
+          <a:ext cx="3343275" cy="3305175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1069,7 +1231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6AEC8C-04C2-46A4-842B-42C34436DCF4}">
   <dimension ref="B1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1086,7 +1248,7 @@
   <sheetData>
     <row r="1" spans="2:7" ht="24" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
@@ -1358,7 +1520,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7298BFDB-ED00-4487-9E27-DB905D0BCD96}">
-  <dimension ref="B1:G25"/>
+  <dimension ref="B1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1374,7 +1536,7 @@
   <sheetData>
     <row r="1" spans="2:7" ht="24" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.4">
@@ -1487,19 +1649,19 @@
       <c r="B12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="C12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="3" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1508,36 +1670,36 @@
         <v>63</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="2" t="s">
-        <v>36</v>
+      <c r="B14" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>58</v>
@@ -1548,10 +1710,10 @@
         <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>39</v>
@@ -1568,10 +1730,10 @@
         <v>36</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>39</v>
@@ -1583,15 +1745,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>39</v>
@@ -1603,35 +1765,35 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B19" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>39</v>
@@ -1643,15 +1805,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>39</v>
@@ -1663,69 +1825,152 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B21" s="2" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B22" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B23" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>39</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B25" s="4" t="s">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B26" s="4" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I30" t="s">
+        <v>90</v>
+      </c>
+      <c r="J30">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I31" t="s">
+        <v>91</v>
+      </c>
+      <c r="J31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="9:10" x14ac:dyDescent="0.4">
+      <c r="I33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="9:10" x14ac:dyDescent="0.4">
+      <c r="I34" t="s">
+        <v>90</v>
+      </c>
+      <c r="J34">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="9:10" x14ac:dyDescent="0.4">
+      <c r="I35" t="s">
+        <v>91</v>
+      </c>
+      <c r="J35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37" spans="9:10" x14ac:dyDescent="0.4">
+      <c r="I37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="9:10" x14ac:dyDescent="0.4">
+      <c r="I38" t="s">
+        <v>90</v>
+      </c>
+      <c r="J38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="9:10" x14ac:dyDescent="0.4">
+      <c r="I39" t="s">
+        <v>91</v>
+      </c>
+      <c r="J39">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1733,4 +1978,71 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B82B6A94-80AA-4C37-AF90-A961AFB725A1}">
+  <dimension ref="B1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" ht="24" x14ac:dyDescent="0.4">
+      <c r="B1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>